--- a/data/trans_orig/P1431-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A15C543-0A20-434E-A1D0-AB325E84D9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DCA224-35C6-44DD-8FA2-1479E533CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77F075B2-146B-432F-A4DB-66AFC9D3DEE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43ABD3AA-C182-4E5A-AC0A-488D8C5857B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="255">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -109,7 +109,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,7 +118,7 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,45%</t>
+    <t>98,73%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,13 +127,13 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>98,37%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -157,625 +157,613 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -1226,7 +1214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D569FF-AEE9-498D-A3BF-D2CD1783E758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059B9EEA-944E-4AA6-A791-8B2A72C63B61}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1610,10 +1598,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1622,13 +1610,13 @@
         <v>3948</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1637,13 +1625,13 @@
         <v>8131</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1646,13 @@
         <v>682904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>567</v>
@@ -1673,13 +1661,13 @@
         <v>606307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>1230</v>
@@ -1688,13 +1676,13 @@
         <v>1289211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,7 +1738,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1813,13 +1801,13 @@
         <v>947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1828,13 +1816,13 @@
         <v>4967</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1846,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,10 +1852,10 @@
         <v>680916</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -1882,10 +1870,10 @@
         <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -1894,13 +1882,13 @@
         <v>1385523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1944,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1974,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1989,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2004,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +2007,13 @@
         <v>5422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2034,13 +2022,13 @@
         <v>7331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2049,13 +2037,13 @@
         <v>12753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2058,13 @@
         <v>609195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>531</v>
@@ -2085,13 +2073,13 @@
         <v>606933</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>1074</v>
@@ -2100,13 +2088,13 @@
         <v>1216127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,7 +2150,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2180,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2195,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2210,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2213,13 @@
         <v>8649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2240,13 +2228,13 @@
         <v>11176</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -2255,13 +2243,13 @@
         <v>19826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2264,13 @@
         <v>420780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -2291,13 +2279,13 @@
         <v>436624</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>781</v>
@@ -2401,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2416,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2419,13 @@
         <v>19875</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -2446,13 +2434,13 @@
         <v>23596</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2461,13 +2449,13 @@
         <v>43471</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2470,13 @@
         <v>539762</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>670</v>
@@ -2497,13 +2485,13 @@
         <v>718270</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>1156</v>
@@ -2512,13 +2500,13 @@
         <v>1258033</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,37 +2580,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2625,13 @@
         <v>40966</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2652,13 +2640,13 @@
         <v>53002</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -2667,13 +2655,13 @@
         <v>93968</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2676,13 @@
         <v>3385813</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" s="7">
         <v>3244</v>
@@ -2703,28 +2691,28 @@
         <v>3500988</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>6415</v>
       </c>
       <c r="N30" s="7">
-        <v>6886800</v>
+        <v>6886801</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,7 +2754,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -2780,7 +2768,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C9490-F7E3-4B50-B170-FDD25739E909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED1799D-329B-4CF4-BA2F-70507BB738E0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2819,7 +2807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2932,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2947,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2962,7 +2950,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2992,13 +2980,13 @@
         <v>946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3007,13 +2995,13 @@
         <v>946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -3043,10 +3031,10 @@
         <v>394809</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>27</v>
@@ -3058,10 +3046,10 @@
         <v>814272</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
@@ -3153,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3168,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3171,13 @@
         <v>3478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3204,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3213,13 +3201,13 @@
         <v>3478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3222,13 @@
         <v>587018</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>579</v>
@@ -3252,7 +3240,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>33</v>
@@ -3264,13 +3252,13 @@
         <v>1150562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3314,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3344,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3389,13 +3377,13 @@
         <v>6877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3404,13 +3392,13 @@
         <v>2017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3419,13 +3407,13 @@
         <v>8893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3428,13 @@
         <v>662220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3455,10 +3443,10 @@
         <v>659369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>27</v>
@@ -3470,13 +3458,13 @@
         <v>1321590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3550,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3565,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3580,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3583,13 @@
         <v>9337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3610,13 +3598,13 @@
         <v>7384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3625,13 +3613,13 @@
         <v>16721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3634,13 @@
         <v>636711</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7">
         <v>595</v>
@@ -3661,28 +3649,28 @@
         <v>641693</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>1168</v>
       </c>
       <c r="N18" s="7">
-        <v>1278404</v>
+        <v>1278405</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,7 +3712,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -3738,7 +3726,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3801,13 +3789,13 @@
         <v>11141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3816,13 +3804,13 @@
         <v>13261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3831,13 +3819,13 @@
         <v>24403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3840,13 @@
         <v>466777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>421</v>
@@ -3867,13 +3855,13 @@
         <v>483588</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>835</v>
@@ -3882,13 +3870,13 @@
         <v>950364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4007,13 +3995,13 @@
         <v>14639</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4022,13 +4010,13 @@
         <v>33218</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4037,13 +4025,13 @@
         <v>47857</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4046,13 @@
         <v>576689</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -4073,13 +4061,13 @@
         <v>744713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>1237</v>
@@ -4088,13 +4076,13 @@
         <v>1321402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,37 +4156,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>45472</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4228,13 +4216,13 @@
         <v>56826</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -4243,13 +4231,13 @@
         <v>102298</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4252,13 @@
         <v>3348878</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H30" s="7">
         <v>3287</v>
@@ -4279,13 +4267,13 @@
         <v>3487716</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
         <v>6473</v>
@@ -4294,13 +4282,13 @@
         <v>6836594</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,7 +4344,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4378,7 +4366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F62E99-89CB-4C65-926C-FFD61137C8C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F0B23F-1001-45A7-AD0C-7919353616F0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4395,7 +4383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4505,7 +4493,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>33</v>
@@ -4520,7 +4508,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>33</v>
@@ -4535,7 +4523,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>33</v>
@@ -4559,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4574,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4589,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4625,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4640,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,7 +4699,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -4741,7 +4729,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -4765,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4795,7 +4783,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4846,7 +4834,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,7 +4890,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4917,7 +4905,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -4932,7 +4920,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>33</v>
@@ -4947,7 +4935,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -4971,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4986,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5001,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5037,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5052,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,7 +5096,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5123,7 +5111,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>33</v>
@@ -5138,7 +5126,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -5147,7 +5135,7 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>27</v>
@@ -5192,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5243,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5300,7 +5288,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -5314,7 +5302,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5329,7 +5317,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>33</v>
@@ -5344,7 +5332,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -5359,7 +5347,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>33</v>
@@ -5398,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5413,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5464,7 +5452,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5517,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>33</v>
@@ -5565,7 +5553,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>33</v>
@@ -5589,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5619,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5670,7 +5658,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,7 +5670,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>33</v>
@@ -5741,7 +5729,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>33</v>
@@ -5756,7 +5744,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>33</v>
@@ -5765,13 +5753,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>33</v>
@@ -5795,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5810,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5825,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5861,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5876,7 +5864,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5906,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -5932,7 +5920,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DCA224-35C6-44DD-8FA2-1479E533CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DBE7182-7024-4976-A319-00F86A8235D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43ABD3AA-C182-4E5A-AC0A-488D8C5857B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BAF6F77-1885-43D3-965E-25FA2BC59508}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="253">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -109,7 +109,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -133,7 +133,7 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -157,604 +157,598 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -1214,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059B9EEA-944E-4AA6-A791-8B2A72C63B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84130958-D4D9-407F-A48D-A2E0867979B4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1601,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1610,13 +1604,13 @@
         <v>3948</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1625,13 +1619,13 @@
         <v>8131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,13 +1640,13 @@
         <v>682904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>567</v>
@@ -1661,13 +1655,13 @@
         <v>606307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1230</v>
@@ -1676,13 +1670,13 @@
         <v>1289211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,7 +1732,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1801,13 +1795,13 @@
         <v>947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1816,13 +1810,13 @@
         <v>4967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1834,10 +1828,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,10 +1846,10 @@
         <v>680916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -1867,13 +1861,13 @@
         <v>704607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -1882,13 +1876,13 @@
         <v>1385523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,7 +1938,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1962,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1977,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1992,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2001,13 @@
         <v>5422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2022,13 +2016,13 @@
         <v>7331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2037,13 +2031,13 @@
         <v>12753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2052,13 @@
         <v>609195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>531</v>
@@ -2073,13 +2067,13 @@
         <v>606933</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>1074</v>
@@ -2088,13 +2082,13 @@
         <v>1216127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,7 +2144,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2168,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2183,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2198,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2207,13 @@
         <v>8649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2228,13 +2222,13 @@
         <v>11176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -2243,13 +2237,13 @@
         <v>19826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2258,13 @@
         <v>420780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -2279,13 +2273,13 @@
         <v>436624</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>781</v>
@@ -2294,13 +2288,13 @@
         <v>857403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2350,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2374,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2389,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2404,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2413,13 @@
         <v>19875</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -2434,13 +2428,13 @@
         <v>23596</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2449,13 +2443,13 @@
         <v>43471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2464,13 @@
         <v>539762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>670</v>
@@ -2485,13 +2479,13 @@
         <v>718270</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>1156</v>
@@ -2500,13 +2494,13 @@
         <v>1258033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2595,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2610,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2619,13 @@
         <v>40966</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2640,13 +2634,13 @@
         <v>53002</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -2655,13 +2649,13 @@
         <v>93968</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2670,13 @@
         <v>3385813</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>3244</v>
@@ -2691,28 +2685,28 @@
         <v>3500988</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M30" s="7">
         <v>6415</v>
       </c>
       <c r="N30" s="7">
-        <v>6886801</v>
+        <v>6886800</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2748,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -2768,7 +2762,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED1799D-329B-4CF4-BA2F-70507BB738E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1D3E93-D78E-4617-9804-AE9BAE26E861}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,7 +2801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2920,7 +2914,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2935,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2950,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2980,13 +2974,13 @@
         <v>946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2995,13 +2989,13 @@
         <v>946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -3031,7 +3025,7 @@
         <v>394809</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>143</v>
@@ -3046,10 +3040,10 @@
         <v>814272</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
@@ -3141,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3156,7 +3150,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3165,13 @@
         <v>3478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3192,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3201,13 +3195,13 @@
         <v>3478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3216,13 @@
         <v>587018</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>579</v>
@@ -3240,7 +3234,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>33</v>
@@ -3252,13 +3246,13 @@
         <v>1150562</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3308,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3332,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3377,13 +3371,13 @@
         <v>6877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3392,13 +3386,13 @@
         <v>2017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3407,13 +3401,13 @@
         <v>8893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3422,13 @@
         <v>662220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>663</v>
@@ -3443,10 +3437,10 @@
         <v>659369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>27</v>
@@ -3458,13 +3452,13 @@
         <v>1321590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,7 +3514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3553,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3568,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3577,13 @@
         <v>9337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3598,13 +3592,13 @@
         <v>7384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3613,13 +3607,13 @@
         <v>16721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3628,13 @@
         <v>636711</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>595</v>
@@ -3649,28 +3643,28 @@
         <v>641693</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M18" s="7">
         <v>1168</v>
       </c>
       <c r="N18" s="7">
-        <v>1278405</v>
+        <v>1278404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,7 +3706,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -3726,7 +3720,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3789,13 +3783,13 @@
         <v>11141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3804,10 +3798,10 @@
         <v>13261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>193</v>
@@ -3819,7 +3813,7 @@
         <v>24403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>194</v>
@@ -3861,7 +3855,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>835</v>
@@ -3870,13 +3864,13 @@
         <v>950364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,7 +3926,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3950,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3998,10 +3992,10 @@
         <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4010,13 +4004,13 @@
         <v>33218</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4025,13 +4019,13 @@
         <v>47857</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4040,13 @@
         <v>576689</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -4061,13 +4055,13 @@
         <v>744713</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>1237</v>
@@ -4076,13 +4070,13 @@
         <v>1321402</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4171,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4186,7 +4180,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>45472</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4216,13 +4210,13 @@
         <v>56826</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -4231,13 +4225,13 @@
         <v>102298</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4246,13 @@
         <v>3348878</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="H30" s="7">
         <v>3287</v>
@@ -4267,13 +4261,13 @@
         <v>3487716</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
         <v>6473</v>
@@ -4282,13 +4276,13 @@
         <v>6836594</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4338,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F0B23F-1001-45A7-AD0C-7919353616F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30FA32-8D71-492F-85EC-89AABE40FCF1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4383,7 +4377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4493,7 +4487,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>33</v>
@@ -4508,7 +4502,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>33</v>
@@ -4523,7 +4517,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>33</v>
@@ -4547,7 +4541,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4562,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4577,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,7 +4592,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4613,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4628,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -4729,7 +4723,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -4753,7 +4747,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4783,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4834,7 +4828,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4884,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4905,7 +4899,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -4920,7 +4914,7 @@
         <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>33</v>
@@ -4935,7 +4929,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>33</v>
@@ -4959,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4974,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4989,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5025,7 +5019,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5040,7 +5034,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5090,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5111,7 +5105,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>33</v>
@@ -5126,7 +5120,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -5180,7 +5174,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5231,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5302,7 +5296,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5317,7 +5311,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>33</v>
@@ -5332,7 +5326,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>33</v>
@@ -5347,7 +5341,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>33</v>
@@ -5386,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5401,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5452,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5502,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5523,7 +5517,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>33</v>
@@ -5553,7 +5547,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>33</v>
@@ -5577,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5607,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5658,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,7 +5723,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>33</v>
@@ -5744,7 +5738,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>33</v>
@@ -5759,7 +5753,7 @@
         <v>27</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>33</v>
@@ -5783,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5798,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5813,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5828,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5849,7 +5843,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5864,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,7 +5914,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E388A4-E971-4F09-A2BE-22A684ADC880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49CF40C-B570-4CD3-B080-6F24182B4B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D0BE85-F196-4A72-B002-338D192DFD49}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{90BAC165-275E-4CDD-82A5-89CEA6DEB93B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="260">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -126,7 +126,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -183,7 +183,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -216,7 +216,7 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -273,7 +273,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,01%</t>
@@ -330,61 +330,118 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -624,58 +681,106 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -1123,8 +1228,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98C2CE3-7F3B-44DA-BA8F-3A7E65ABD7D1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A173868-71ED-4CFB-99D2-69D7AEFFA515}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2016,10 +2121,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>19875</v>
+        <v>7080</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>98</v>
@@ -2031,10 +2136,10 @@
         <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>23596</v>
+        <v>12784</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>101</v>
@@ -2046,10 +2151,10 @@
         <v>103</v>
       </c>
       <c r="M19" s="7">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>43471</v>
+        <v>19865</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>104</v>
@@ -2067,10 +2172,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>486</v>
+        <v>275</v>
       </c>
       <c r="D20" s="7">
-        <v>539762</v>
+        <v>302706</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>107</v>
@@ -2082,10 +2187,10 @@
         <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>670</v>
+        <v>331</v>
       </c>
       <c r="I20" s="7">
-        <v>718270</v>
+        <v>341212</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>110</v>
@@ -2097,10 +2202,10 @@
         <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>1156</v>
+        <v>606</v>
       </c>
       <c r="N20" s="7">
-        <v>1258033</v>
+        <v>643917</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>113</v>
@@ -2118,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2133,10 +2238,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741866</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2148,10 +2253,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301504</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2165,55 +2270,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>40966</v>
+        <v>12795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>53002</v>
+        <v>10812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>93968</v>
+        <v>23606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,49 +2327,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3171</v>
+        <v>211</v>
       </c>
       <c r="D23" s="7">
-        <v>3385813</v>
+        <v>237056</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
-        <v>3244</v>
+        <v>339</v>
       </c>
       <c r="I23" s="7">
-        <v>3500988</v>
+        <v>377058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
-        <v>6415</v>
+        <v>550</v>
       </c>
       <c r="N23" s="7">
-        <v>6886800</v>
+        <v>614115</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,63 +2378,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387870</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637721</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40966</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="7">
+        <v>51</v>
+      </c>
+      <c r="I25" s="7">
+        <v>53002</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="7">
+        <v>89</v>
+      </c>
+      <c r="N25" s="7">
+        <v>93968</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3171</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3385813</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3244</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3500988</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6415</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6886801</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553990</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980768</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>6980769</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2342,8 +2603,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC38D5B9-7481-4CB0-BF89-E1FE52BC78FF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B05957C-666C-4CF4-B1D2-6E9919AD01BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2359,7 +2620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2469,10 +2730,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2481,13 +2742,13 @@
         <v>946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2496,13 +2757,13 @@
         <v>946</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2781,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2532,10 +2793,10 @@
         <v>394809</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2547,10 +2808,10 @@
         <v>814272</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -2621,13 +2882,13 @@
         <v>3478</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2639,10 +2900,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2654,10 +2915,10 @@
         <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,10 +2933,10 @@
         <v>587018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>44</v>
@@ -2690,7 +2951,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -2705,10 +2966,10 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +3037,13 @@
         <v>6877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2797,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2806,13 +3067,13 @@
         <v>8893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,10 +3088,10 @@
         <v>662220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -2845,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -2857,13 +3118,13 @@
         <v>1321590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +3192,13 @@
         <v>9337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2946,13 +3207,13 @@
         <v>7384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2961,13 +3222,13 @@
         <v>16721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3243,13 @@
         <v>636711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>595</v>
@@ -2997,13 +3258,13 @@
         <v>641693</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>1168</v>
@@ -3012,13 +3273,13 @@
         <v>1278404</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3347,13 @@
         <v>11141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3101,13 +3362,13 @@
         <v>13261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3119,10 +3380,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3398,13 @@
         <v>466777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3152,13 +3413,13 @@
         <v>483588</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>835</v>
@@ -3170,10 +3431,10 @@
         <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,49 +3496,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>14639</v>
+        <v>8827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>33218</v>
+        <v>13134</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>47857</v>
+        <v>21961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,49 +3547,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>611</v>
+        <v>316</v>
       </c>
       <c r="D20" s="7">
-        <v>576689</v>
+        <v>325503</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
-        <v>626</v>
+        <v>341</v>
       </c>
       <c r="I20" s="7">
-        <v>744713</v>
+        <v>364628</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
-        <v>1237</v>
+        <v>657</v>
       </c>
       <c r="N20" s="7">
-        <v>1321402</v>
+        <v>690131</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,10 +3598,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -3352,10 +3613,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -3367,10 +3628,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3384,55 +3645,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>45472</v>
+        <v>5812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>56826</v>
+        <v>20084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>102298</v>
+        <v>25896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,49 +3702,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3186</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3348878</v>
+        <v>251186</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
-        <v>3287</v>
+        <v>285</v>
       </c>
       <c r="I23" s="7">
-        <v>3487716</v>
+        <v>380085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
-        <v>6473</v>
+        <v>580</v>
       </c>
       <c r="N23" s="7">
-        <v>6836594</v>
+        <v>631271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,63 +3753,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45472</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="7">
+        <v>51</v>
+      </c>
+      <c r="I25" s="7">
+        <v>56826</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" s="7">
+        <v>96</v>
+      </c>
+      <c r="N25" s="7">
+        <v>102298</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3186</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3348878</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3287</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3487716</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6473</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6836594</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
